--- a/api/reporte-stock.xlsx
+++ b/api/reporte-stock.xlsx
@@ -28,184 +28,313 @@
     <x:t>Comentario</x:t>
   </x:si>
   <x:si>
-    <x:t>912ef2ae-20c8-4eb0-7b65-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nombre aleatorio</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Descripción aleatoria</x:t>
+    <x:t>ae3212d6-be7a-4eb9-5b29-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAM AM4 Pro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Este es un producto en perfecto estado</x:t>
   </x:si>
   <x:si>
     <x:t>Stock suficiente</x:t>
   </x:si>
   <x:si>
-    <x:t>97b93926-77fd-43c4-7b66-08dc83926143</x:t>
+    <x:t>ea11181f-f60e-4abb-5b2a-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HDD DDR4 Ultra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d8f0c798-47c9-42e0-5b2b-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAM 970 Max</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22490b1c-ff10-471f-5b2c-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mouse 3080 Ultra</x:t>
   </x:si>
   <x:si>
     <x:t>El stock del producto es bajo, es necesario reponer</x:t>
   </x:si>
   <x:si>
-    <x:t>c335275f-3ac2-4b1d-7b67-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>b7538d2b-b7e0-418d-7b68-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>916a2e0e-ae2d-424f-7b69-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1f748452-3b6f-4479-7b6a-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01aecce8-f71c-42ab-7b6b-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a08f9ad1-2bef-4f06-7b6c-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1401d521-d96e-4ba9-7b6d-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2a306655-89a8-4405-7b6e-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103f5722-0ed9-46d4-7b6f-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4962d04e-7789-4734-7b70-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f439e2db-3898-4ef3-7b71-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f760d08a-f2ad-4500-7b72-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9c672064-6dee-4742-7b73-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>601a75dc-706c-49c7-7b74-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5b5c4766-c2c0-4ccc-7b75-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>304cf75b-0603-4a9f-7b76-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58d3c904-c004-4c4c-7b77-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fb22bde0-2643-4d3c-7b78-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>840f47d9-8cc8-4739-7b79-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f2433e76-1713-42fa-7b7a-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1e9f137e-e89c-4bd3-7b7b-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ab5408e5-0779-4b63-7b7c-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bea165e2-9043-41d7-7b7d-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7412b700-d8c9-44c9-7b7e-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91b7df88-d171-425b-7b7f-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0ae7908c-27d0-439a-7b80-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5d2ffd0a-ba68-44e9-7b81-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ce44a197-fca1-4ab5-7b82-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9b49ec6b-abb1-4450-7b83-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30dcfe93-37c0-43a2-7b84-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7bf7e358-1f43-4807-7b85-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cdca8149-5b5a-4efe-7b86-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34185879-ea90-4e87-7b87-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>854e1031-6fa6-4790-7b88-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>d0e0a1f4-6ddc-4fd2-7b89-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>e6f6432d-96cd-4fbf-7b8a-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>b4a7eab1-cb64-42b6-7b8b-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>017beaf3-ea01-4421-7b8c-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16bd2e39-ee24-4447-7b8d-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a9d7dd3d-5bc0-4d72-7b8e-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9b9e318f-4363-465e-7b8f-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24134090-1de1-4786-7b90-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>d9f2be38-1bc4-49ab-7b91-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>858fe0c3-72a7-4ffd-7b92-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f9b5765b-f966-4d86-7b93-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8f3d71b2-055f-47c4-7b94-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09d73bcb-09af-45fc-7b95-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57fa9965-b0fa-4130-7b96-08dc83926143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>d742ec77-c321-4caf-9a01-a60affcbb407</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A520M-K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRIME A520M-K Mainboard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3fbf76aa-6385-4478-902d-c7e9f73df546</x:t>
-  </x:si>
-  <x:si>
-    <x:t>placa asus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>placa marca asus</x:t>
+    <x:t>efa150b4-8fb4-4b36-5b2d-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPU 6800 Extreme</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6c6ac811-0b21-403e-5b2e-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HDD Intel i7 Ultra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>871427c8-1bc6-41f2-5b2f-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPU DDR4 Expert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bcda070c-9f92-4328-5b30-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mouse 500GB Expert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>421794f1-be5f-4bc2-5b31-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RTX 500GB Gaming</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a4f927e0-37d9-48d0-5b32-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RX 1TB Master</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8605be53-38c4-427b-5b33-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RTX 6800 Turbo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>728c3b4d-d2e9-460b-5b34-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Placa Madre 970 Turbo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54155c5f-6c13-440d-5b35-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RX 6800 Plus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>912ffab2-f023-4e2f-5b36-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RX 970 Max</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fe5b9a0e-6bce-4626-5b37-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAM 6800 Max</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1313ff96-dee1-485b-5b38-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAM 970 Turbo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0dc01bd6-8910-465d-5b39-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Placa Madre 144Hz Turbo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>536bd520-7639-40b6-5b3a-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HDD 1TB Extreme</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53fa2300-0281-48b4-5b3b-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RTX AM4 Elite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1398d62b-bd9a-4a1f-5b3c-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAM 3080 Pro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7f22c92d-957f-469d-5b3d-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monitor 970 Prime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b40e2458-f817-4ca7-5b3e-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mouse DDR4 Prime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19570505-2ed2-4da4-5b3f-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monitor 500GB Extreme</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85cca03c-14b5-46dd-5b40-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fuente DDR4 Pro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>beeca787-1ef2-47b5-5b41-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HDD 6800 Extreme</x:t>
+  </x:si>
+  <x:si>
+    <x:t>551beb0e-3f1e-4e31-5b42-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RX Óptico Turbo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42d71852-9a62-4c25-5b43-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Placa Madre Óptico Advanced</x:t>
+  </x:si>
+  <x:si>
+    <x:t>df83208c-75b7-4086-5b44-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPU Óptico Expert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>862ee065-c74f-414e-5b45-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mouse 3080 Pro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5bca5869-e14f-4a17-5b46-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GTX Óptico Advanced</x:t>
+  </x:si>
+  <x:si>
+    <x:t>efa122cd-301b-4e4c-5b47-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RTX 6800 Elite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97536079-73e8-4abe-5b48-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mouse 3080 Turbo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e66d51e8-4cbf-48af-5b49-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HDD 750W Gaming</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87253bc1-c03f-44f8-5b4a-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GPU AM4 Elite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30e78dc3-f1c3-4a34-5b4b-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GPU Óptico Turbo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b6d20516-9509-4845-5b4c-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GPU 500GB Expert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c26a0578-adc3-4ecd-5b4d-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Teclado 500GB Gaming</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c6fc0e89-4fbe-4df2-5b4e-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mouse 750W Prime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219fc855-3c9a-4deb-5b4f-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fuente AM4 Prime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>271ad3ea-ab7c-47ad-5b50-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAM DDR4 Turbo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8b34de23-c1d5-493f-5b51-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Placa Madre AM4 Ultra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46a8fa95-b13a-4c5b-5b52-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HDD DDR4 Expert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b5a7c5c8-8b3c-46b7-5b53-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SSD Ryzen 5 Prime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5ea1d5ad-c17b-44bf-5b54-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RTX 970 Extreme</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89e9c026-368c-4cf3-5b55-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monitor 500GB Expert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>382e61bb-c871-48e7-5b56-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fuente 144Hz Master</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66db2a82-43a7-432a-5b57-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RX Óptico Master</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1797eb92-546a-41e9-5b58-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RX 6800 Expert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fe470402-0634-439f-5b59-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SSD Óptico Extreme</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8ae09d9b-0247-4397-5b5a-08dc8cc60340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GTX 750W Plus</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -269,8 +398,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Reportedeproductos" displayName="Reportedeproductos" ref="A1:D53" totalsRowShown="0">
-  <x:autoFilter ref="A1:D53"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Reportedeproductos" displayName="Reportedeproductos" ref="A1:D51" totalsRowShown="0">
+  <x:autoFilter ref="A1:D51"/>
   <x:tableColumns count="4">
     <x:tableColumn id="1" name="ID"/>
     <x:tableColumn id="2" name="Nombre del producto"/>
@@ -569,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D53"/>
+  <x:dimension ref="A1:D51"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -608,13 +737,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -622,7 +751,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
         <x:v>6</x:v>
@@ -633,94 +762,94 @@
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="A8" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="A9" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="A11" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
         <x:v>6</x:v>
@@ -731,24 +860,24 @@
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="A12" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="A13" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>6</x:v>
@@ -759,24 +888,24 @@
     </x:row>
     <x:row r="14" spans="1:4">
       <x:c r="A14" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="A15" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
         <x:v>6</x:v>
@@ -787,24 +916,24 @@
     </x:row>
     <x:row r="16" spans="1:4">
       <x:c r="A16" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
       <x:c r="A17" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
         <x:v>6</x:v>
@@ -815,38 +944,38 @@
     </x:row>
     <x:row r="18" spans="1:4">
       <x:c r="A18" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
       <x:c r="A19" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
       <x:c r="A20" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
         <x:v>6</x:v>
@@ -857,66 +986,66 @@
     </x:row>
     <x:row r="21" spans="1:4">
       <x:c r="A21" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4">
       <x:c r="A22" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
       <x:c r="A23" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
       <x:c r="A24" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4">
       <x:c r="A25" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>6</x:v>
@@ -927,10 +1056,10 @@
     </x:row>
     <x:row r="26" spans="1:4">
       <x:c r="A26" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
         <x:v>6</x:v>
@@ -941,24 +1070,24 @@
     </x:row>
     <x:row r="27" spans="1:4">
       <x:c r="A27" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
       <x:c r="A28" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
         <x:v>6</x:v>
@@ -969,10 +1098,10 @@
     </x:row>
     <x:row r="29" spans="1:4">
       <x:c r="A29" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
         <x:v>6</x:v>
@@ -983,52 +1112,52 @@
     </x:row>
     <x:row r="30" spans="1:4">
       <x:c r="A30" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:4">
       <x:c r="A31" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:4">
       <x:c r="A32" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:4">
       <x:c r="A33" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
         <x:v>6</x:v>
@@ -1039,24 +1168,24 @@
     </x:row>
     <x:row r="34" spans="1:4">
       <x:c r="A34" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:4">
       <x:c r="A35" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
         <x:v>6</x:v>
@@ -1067,10 +1196,10 @@
     </x:row>
     <x:row r="36" spans="1:4">
       <x:c r="A36" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
         <x:v>6</x:v>
@@ -1081,52 +1210,52 @@
     </x:row>
     <x:row r="37" spans="1:4">
       <x:c r="A37" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:4">
       <x:c r="A38" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:4">
       <x:c r="A39" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:4">
       <x:c r="A40" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
         <x:v>6</x:v>
@@ -1137,24 +1266,24 @@
     </x:row>
     <x:row r="41" spans="1:4">
       <x:c r="A41" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:4">
       <x:c r="A42" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
         <x:v>6</x:v>
@@ -1165,10 +1294,10 @@
     </x:row>
     <x:row r="43" spans="1:4">
       <x:c r="A43" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
         <x:v>6</x:v>
@@ -1179,24 +1308,24 @@
     </x:row>
     <x:row r="44" spans="1:4">
       <x:c r="A44" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:4">
       <x:c r="A45" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
         <x:v>6</x:v>
@@ -1207,24 +1336,24 @@
     </x:row>
     <x:row r="46" spans="1:4">
       <x:c r="A46" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:4">
       <x:c r="A47" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
         <x:v>6</x:v>
@@ -1235,24 +1364,24 @@
     </x:row>
     <x:row r="48" spans="1:4">
       <x:c r="A48" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:4">
       <x:c r="A49" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
         <x:v>6</x:v>
@@ -1263,58 +1392,30 @@
     </x:row>
     <x:row r="50" spans="1:4">
       <x:c r="A50" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:4">
       <x:c r="A51" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:4">
-      <x:c r="A52" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B52" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C52" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D52" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:4">
-      <x:c r="A53" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="B53" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C53" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D53" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
